--- a/old_versions/version_4/CDI_CAI/app/debug_utils/map_values/map_values.xlsx
+++ b/old_versions/version_4/CDI_CAI/app/debug_utils/map_values/map_values.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azhurl01\My_GitHub\demo_informatica_ci_cd\old_versions\version_4\CDI_CAI\app\debug_utils\map_values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8ADF05-5883-4C4D-9AA0-24EB827A2375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26721D1D-0C34-4FC7-80F2-50F373D28580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2424" windowWidth="21900" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4908" yWindow="1956" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAI" sheetId="1" r:id="rId1"/>
+    <sheet name="CDI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="88">
   <si>
     <t>Folder</t>
   </si>
@@ -235,13 +236,67 @@
   </si>
   <si>
     <t xml:space="preserve">for $i in fn:tokenize(fn:unparsed-text('/informatica_filesharing/test/simplifi/cai/input/SAP_RDM_API.txt'),'\n') </t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_B360</t>
+  </si>
+  <si>
+    <t>IDMC_Test_SimpliFi_B360</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_EXCEL</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_EXCEL_Microsoft</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_FLATFILE</t>
+  </si>
+  <si>
+    <t>IDMC_Test_SimpliFi_Flatfile</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_FS_CAI</t>
+  </si>
+  <si>
+    <t>IDMC_Test_SimpliFi_FS_CAI</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_FS_CAI_OUTPUT</t>
+  </si>
+  <si>
+    <t>IDMC_Test_SimpliFi_FS_CAI_OUTPUT</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_MDM_FLATFILE</t>
+  </si>
+  <si>
+    <t>IDMC_Test_SimpliFi_MDM_FLATFILE</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_SAP_FAQ_BAPI</t>
+  </si>
+  <si>
+    <t>IDMC_Test_SimpliFi_SAP_FAQ_BAPI</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_SAP_FAQ_NonSNC</t>
+  </si>
+  <si>
+    <t>IDMC_SBXDEV_SIMPLIFI_SAP_FAQ_Table</t>
+  </si>
+  <si>
+    <t>GCS_IDMC_SBXDEV_SIMPLIFI_SAP_FAQ_BAPI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +323,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +349,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,6 +520,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,4 +1423,156 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0AB4DA-152E-4BF7-9BA7-D186F1E759A7}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>